--- a/LWTasks.xlsx
+++ b/LWTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austin.wise\Desktop\LandWise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC68958-C025-4DD6-A30B-B35C7D7F18DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF8C0D8-FF69-4EAD-BB55-5AAD16782AAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1477" yWindow="1193" windowWidth="18226" windowHeight="11422" activeTab="2" xr2:uid="{6AADF604-8123-4F92-97E6-F0BFD65D7E5B}"/>
+    <workbookView xWindow="3503" yWindow="345" windowWidth="18225" windowHeight="11423" activeTab="2" xr2:uid="{6AADF604-8123-4F92-97E6-F0BFD65D7E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="107">
   <si>
     <t>Location</t>
   </si>
@@ -89,9 +89,6 @@
     <t>CAMPAIGN MODAL</t>
   </si>
   <si>
-    <t>LEAD MODAL</t>
-  </si>
-  <si>
     <t>ACQUISITION MODAL</t>
   </si>
   <si>
@@ -348,6 +345,15 @@
   </si>
   <si>
     <t>DB(Table: Properties, Column: roadAccess)</t>
+  </si>
+  <si>
+    <t>FD code draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 4 Goal - </t>
+  </si>
+  <si>
+    <t>design and layout (kanban board)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -585,6 +591,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,13 +603,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -929,33 +938,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A45098-DFA6-4422-8359-F8F72E4491BF}">
-  <dimension ref="A2:J35"/>
+  <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="15.46484375" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="H2" s="27" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -976,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
@@ -988,309 +998,430 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="24" t="s">
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="21"/>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
         <v>18</v>
       </c>
-      <c r="I14" t="s">
+      <c r="M14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="21"/>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="21"/>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="21"/>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
       <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="21"/>
+      <c r="D22" s="9"/>
+      <c r="H22" t="s">
         <v>16</v>
       </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H21" t="s">
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="21"/>
+      <c r="D23" s="12"/>
+      <c r="H23" t="s">
         <v>16</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="21"/>
+      <c r="D24" s="12"/>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="21"/>
+      <c r="D25" s="12"/>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="21"/>
+      <c r="D26" s="12"/>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1312,147 +1443,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1460,70 +1591,70 @@
       <c r="C15" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>37</v>
-      </c>
       <c r="C20" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1540,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98F05DB-98C4-451B-B919-B88DE96D1CCA}">
-  <dimension ref="A2:F50"/>
+  <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1555,16 +1686,16 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1572,10 +1703,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1583,10 +1714,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1594,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1605,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1616,260 +1747,258 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>98</v>
+        <v>30</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>95</v>
+      <c r="E28" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E38" t="s">
-        <v>72</v>
+      <c r="D38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D41" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.45">
@@ -1879,12 +2008,12 @@
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.45">
@@ -1892,19 +2021,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C49" t="s">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D43:D48">
-    <sortCondition ref="D48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D44:D49">
+    <sortCondition ref="D49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LWTasks.xlsx
+++ b/LWTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austin.wise\Desktop\LandWise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF8C0D8-FF69-4EAD-BB55-5AAD16782AAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F88F5-0594-4C2F-A318-ADD65C1B41F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3503" yWindow="345" windowWidth="18225" windowHeight="11423" activeTab="2" xr2:uid="{6AADF604-8123-4F92-97E6-F0BFD65D7E5B}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="18224" windowHeight="11422" xr2:uid="{6AADF604-8123-4F92-97E6-F0BFD65D7E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="108">
   <si>
     <t>Location</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>design and layout (kanban board)</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -940,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A45098-DFA6-4422-8359-F8F72E4491BF}">
   <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -987,7 +990,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1673,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98F05DB-98C4-451B-B919-B88DE96D1CCA}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
